--- a/Documentos/SPRINTS/SPRINT1/archivos/Sprint_Burndown_GESPROY.xlsx
+++ b/Documentos/SPRINTS/SPRINT1/archivos/Sprint_Burndown_GESPROY.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIM_41\Asignaturas\21.- Direccion de Proyectos\Proyectos\2_Gestion_Proyectos\3.- SPRINT 1\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DIM/DIM-41 22.10.18/ASIGNATURAS/21-Direccion_Gestion_Proyectos/PROYECTO/Ultimo/por modificar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9827702B-2627-4FDC-BE38-C2B971A2F2F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D538BF2EFB0A3BD3613FD8CA63FDC0E82704486F" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="4080" windowWidth="42860" windowHeight="23760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GESPROY - Burndown" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GESPROY - Burndown'!$C$4:$O$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'GESPROY - Burndown'!$B$1:$Q$41</definedName>
-    <definedName name="Header">'GESPROY - Burndown'!$C$3:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GESPROY - Burndown'!$C$4:$M$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'GESPROY - Burndown'!$B$1:$O$39</definedName>
+    <definedName name="Header">'GESPROY - Burndown'!$C$3:$M$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'GESPROY - Burndown'!$3:$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -62,31 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Coria:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Use a positive number to indicate that the item is complete.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -212,42 +195,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Creación de las Clases de Diseño</t>
-  </si>
-  <si>
-    <t>Realización de Diagrama de Secuencia Camino Básico</t>
-  </si>
-  <si>
-    <t>Mostrar listado de proyectos seleccionados</t>
-  </si>
-  <si>
-    <t>Creación de ficheros de datos json</t>
-  </si>
-  <si>
-    <t>Implementación Clases de Diseño, serializar y deserializar fichero.</t>
-  </si>
-  <si>
-    <t>Esfuerzo restante</t>
-  </si>
-  <si>
-    <t>Tendencia Ideal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">        GESTIÓN DE PROYECTOS                               SPRINT 1 - BURNDOWN CHART</t>
   </si>
   <si>
-    <t>Dia 1</t>
-  </si>
-  <si>
-    <t>PH Estimado</t>
+    <t>ID Tarea</t>
   </si>
   <si>
     <t>Tareas</t>
   </si>
   <si>
-    <t>Dia 2</t>
+    <t>PH Estimado</t>
   </si>
   <si>
     <t>Dia 3</t>
@@ -274,14 +233,32 @@
     <t>Dia 10</t>
   </si>
   <si>
-    <t>ID Tarea</t>
+    <t>Creación de las Clases de Diseño</t>
+  </si>
+  <si>
+    <t>Realización de Diagrama de Secuencia Camino Básico</t>
+  </si>
+  <si>
+    <t>Mostrar listado de proyectos seleccionados</t>
+  </si>
+  <si>
+    <t>Creación de ficheros de datos json</t>
+  </si>
+  <si>
+    <t>Implementación Clases de Diseño, serializar y deserializar fichero.</t>
+  </si>
+  <si>
+    <t>Esfuerzo restante</t>
+  </si>
+  <si>
+    <t>Tendencia Ideal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -422,25 +399,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -449,20 +426,20 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -470,24 +447,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -496,7 +473,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -504,17 +481,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -524,7 +501,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -532,12 +509,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,27 +523,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -574,185 +540,149 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -762,7 +692,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,27 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -824,45 +742,34 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -870,6 +777,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -916,7 +835,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GESPROY - Burndown'!$D$13</c:f>
+              <c:f>'GESPROY - Burndown'!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,42 +874,36 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'GESPROY - Burndown'!$E$13:$O$13</c:f>
+              <c:f>'GESPROY - Burndown'!$E$11:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +920,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'GESPROY - Burndown'!$D$14</c:f>
+              <c:f>'GESPROY - Burndown'!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1030,10 +943,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'GESPROY - Burndown'!$E$14:$O$14</c:f>
+              <c:f>'GESPROY - Burndown'!$E$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1061,12 +974,6 @@
                 <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1086,11 +993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="414553768"/>
-        <c:axId val="414555728"/>
+        <c:axId val="-1204855120"/>
+        <c:axId val="-1204852800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414553768"/>
+        <c:axId val="-1204855120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414555728"/>
+        <c:crossAx val="-1204852800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1108,7 +1015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414555728"/>
+        <c:axId val="-1204852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414553768"/>
+        <c:crossAx val="-1204855120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1134,7 +1041,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1161,13 +1068,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>702880</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1197,15 +1104,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>149348</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>160030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>157778</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157779</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>98353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1294,9 +1201,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1324,31 +1231,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1376,23 +1266,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1573,1050 +1446,910 @@
     <tabColor theme="8" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="66.5546875" customWidth="1"/>
-    <col min="5" max="15" width="10.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+    <col min="5" max="13" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="21"/>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.95" thickBot="1">
+      <c r="A2" s="21"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="20.100000000000001" thickBot="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="40">
+        <v>43605</v>
+      </c>
+      <c r="G4" s="40">
+        <v>43606</v>
+      </c>
+      <c r="H4" s="40">
+        <v>43607</v>
+      </c>
+      <c r="I4" s="40">
+        <v>43608</v>
+      </c>
+      <c r="J4" s="39">
+        <v>43609</v>
+      </c>
+      <c r="K4" s="40">
+        <v>43610</v>
+      </c>
+      <c r="L4" s="40">
+        <v>43611</v>
+      </c>
+      <c r="M4" s="41">
+        <v>43612</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="29"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="J5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="55">
-        <v>43603</v>
-      </c>
-      <c r="G4" s="56">
-        <v>43604</v>
-      </c>
-      <c r="H4" s="56">
-        <v>43605</v>
-      </c>
-      <c r="I4" s="56">
-        <v>43606</v>
-      </c>
-      <c r="J4" s="56">
-        <v>43607</v>
-      </c>
-      <c r="K4" s="56">
-        <v>43608</v>
-      </c>
-      <c r="L4" s="55">
-        <v>43609</v>
-      </c>
-      <c r="M4" s="56">
-        <v>43610</v>
-      </c>
-      <c r="N4" s="56">
-        <v>43611</v>
-      </c>
-      <c r="O4" s="57">
-        <v>43612</v>
-      </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="28"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="M5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="N5" s="25"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="21"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="8">
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="21"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <v>20</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="8">
+      <c r="J8" s="8">
         <v>3</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="21"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="19">
+      <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="L9" s="8">
+      <c r="J9" s="8">
         <v>2</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.95" thickBot="1">
+      <c r="A10" s="21"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5">
         <v>20</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="L10" s="6">
+      <c r="J10" s="6">
         <v>4</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.95" thickBot="1">
+      <c r="A11" s="21"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="42">
-        <f>SUM(E6:E12)</f>
+      <c r="C11" s="32"/>
+      <c r="D11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="34">
+        <f>SUM(E6:E10)</f>
         <v>60</v>
       </c>
-      <c r="F13" s="43">
-        <f t="shared" ref="F13:O13" si="0">E13-SUM(F6:F12)</f>
+      <c r="F11" s="44">
+        <f>E12-SUM(F6:F10)</f>
         <v>60</v>
       </c>
-      <c r="G13" s="43">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H13" s="43">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I13" s="43">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J13" s="43">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="K13" s="43">
+      <c r="G11" s="44">
+        <f t="shared" ref="G11:M11" si="0">F12-SUM(G6:G10)</f>
+        <v>53</v>
+      </c>
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="L13" s="43">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="M13" s="43">
+        <v>31</v>
+      </c>
+      <c r="J11" s="44">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="N13" s="43">
+        <v>24</v>
+      </c>
+      <c r="K11" s="44">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O13" s="44">
+        <v>30</v>
+      </c>
+      <c r="L11" s="44">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="46">
-        <f>E13</f>
+        <v>24</v>
+      </c>
+      <c r="M11" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.95" thickBot="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="36">
+        <f>E11</f>
         <v>60</v>
       </c>
-      <c r="F14" s="47">
-        <f>E14-($E$13/10)</f>
+      <c r="F12" s="37">
+        <f>E12-($E$11/10)</f>
         <v>54</v>
       </c>
-      <c r="G14" s="47">
-        <f t="shared" ref="G14:M14" si="1">F14-($E$13/10)</f>
+      <c r="G12" s="37">
+        <f>F12-($E$11/10)</f>
         <v>48</v>
       </c>
-      <c r="H14" s="47">
-        <f t="shared" si="1"/>
+      <c r="H12" s="37">
+        <f t="shared" ref="H12:K12" si="1">G12-($E$11/10)</f>
         <v>42</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I12" s="37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J12" s="37">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K12" s="37">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L14" s="47">
-        <f t="shared" si="1"/>
+      <c r="L12" s="37">
+        <f t="shared" ref="L12:M12" si="2">K12-($E$11/10)</f>
         <v>18</v>
       </c>
-      <c r="M14" s="47">
-        <f t="shared" si="1"/>
+      <c r="M12" s="38">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N14" s="47">
-        <f t="shared" ref="N14:O14" si="2">M14-($E$13/10)</f>
-        <v>6</v>
-      </c>
-      <c r="O14" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="21"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" ht="18">
+      <c r="A15" s="21"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="21"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="21"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="21"/>
       <c r="B18" s="12"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="21"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="21"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="21"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="29"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="21"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="29"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="21"/>
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="29"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="21"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="29"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="21"/>
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="29"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="21"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="29"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="21"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="29"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="21"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="21"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="29"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="21"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="21"/>
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="29"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="21"/>
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="29"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="21"/>
       <c r="B31" s="12"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="29"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="21"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="29"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="21"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="29"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="21"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="29"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="21"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="29"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="21"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="21"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="29"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="21"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="21"/>
       <c r="B37" s="12"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="29"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="21"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="21"/>
       <c r="B38" s="12"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="29"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.95" thickBot="1">
+      <c r="A39" s="21"/>
       <c r="B39" s="12"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="29"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="29"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="29"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="21"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.95" thickTop="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="C4:O5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C4:M5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="C4:O81">
     <sortCondition ref="C4:C81"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="B1:Q2"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B1:O2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:O11 L12 O12 F6:K12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:M10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>-100</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
